--- a/layout/Analysis.xlsx
+++ b/layout/Analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minigrrl\Documents\Work\SourceControl\GitHub\FHIR\case-reporting\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B00C3-200A-4123-845D-2AE18A7DD0E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B19914-DA98-45BC-8A89-F11D75761C7B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13650" xr2:uid="{F2A731B6-9B04-4DC9-8355-098705D8749D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Profiles" sheetId="1" r:id="rId1"/>
+    <sheet name="ValueSets" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
   <si>
     <t>Profile/Extension</t>
   </si>
@@ -162,12 +163,6 @@
   </si>
   <si>
     <t>RR</t>
-  </si>
-  <si>
-    <t>New Name?</t>
-  </si>
-  <si>
-    <t>Reportability Response Subject?</t>
   </si>
   <si>
     <t>Reportability Response Summary?</t>
@@ -221,6 +216,51 @@
   </si>
   <si>
     <t>Social History Observation (V3)</t>
+  </si>
+  <si>
+    <t>Organism_Substance Triggers for Public Health Reporting</t>
+  </si>
+  <si>
+    <t>Lab Obs Test Name Triggers for Public Health Reporting</t>
+  </si>
+  <si>
+    <t>Lab Order Test Name Triggers for Public Health Reporting</t>
+  </si>
+  <si>
+    <t>Diagnosis_Problem Triggers for Public Health Reporting</t>
+  </si>
+  <si>
+    <t>LocationRelevance</t>
+  </si>
+  <si>
+    <t>ReportingTimeframe</t>
+  </si>
+  <si>
+    <t>eICR Processing Status Reason</t>
+  </si>
+  <si>
+    <t>Reportability Priority</t>
+  </si>
+  <si>
+    <t>External Resource Type</t>
+  </si>
+  <si>
+    <t>Determination of Reportability Reason Codes</t>
+  </si>
+  <si>
+    <t>eICR Inactice RCTC Codes</t>
+  </si>
+  <si>
+    <t>Reportable Condition Trigger Codes (RCTC)</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>RR Subject</t>
+  </si>
+  <si>
+    <t>extension-rr-subject</t>
   </si>
 </sst>
 </file>
@@ -590,7 +630,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -621,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>33</v>
@@ -630,7 +670,7 @@
         <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -644,7 +684,7 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
@@ -672,7 +712,7 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>34</v>
@@ -700,7 +740,7 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
         <v>34</v>
@@ -728,10 +768,10 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -745,7 +785,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
@@ -762,10 +802,10 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -790,7 +830,7 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
@@ -870,7 +910,7 @@
         <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
         <v>34</v>
@@ -889,13 +929,16 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="F21" t="s">
         <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -903,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -971,10 +1014,10 @@
         <v>41</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -988,10 +1031,10 @@
         <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1016,7 +1059,7 @@
         <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
         <v>34</v>
@@ -1033,10 +1076,113 @@
         <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83646ABC-E2FA-4DAB-9ECF-33873EB5982A}">
+  <dimension ref="A2:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
